--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3650893.336517697</v>
+        <v>3648641.25680649</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>176.5628832813632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826029</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>70.9950600273972</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>171.6734892200606</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2882635917089</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>380.6114382412673</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1029,7 +1029,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.7126336312586</v>
       </c>
       <c r="U7" t="n">
-        <v>74.48968115932692</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>142.3478174606649</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>38.94671141087781</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.32727861849563</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>101.427323227022</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>285.821290919241</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695746</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>53.30076123484837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>20.88994825141626</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,10 +2087,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>59.3100580403004</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>133.605923711194</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>53.3007612348484</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>122.8704329402516</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>185.6920487814951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,7 +3910,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.63412424768211</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>177.314903109061</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1032.061124352532</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>663.0986074121199</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>304.8329088053694</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>126.4865620565176</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416653</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686088</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064765</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080142</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657.6489837069648</v>
+        <v>138.2242982780392</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>138.2242982780392</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>138.2242982780392</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>138.2242982780392</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S4" t="n">
-        <v>657.6489837069648</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T4" t="n">
-        <v>657.6489837069648</v>
+        <v>609.2899331452395</v>
       </c>
       <c r="U4" t="n">
-        <v>657.6489837069648</v>
+        <v>609.2899331452395</v>
       </c>
       <c r="V4" t="n">
-        <v>657.6489837069648</v>
+        <v>609.2899331452395</v>
       </c>
       <c r="W4" t="n">
-        <v>657.6489837069648</v>
+        <v>319.8727631082789</v>
       </c>
       <c r="X4" t="n">
-        <v>657.6489837069648</v>
+        <v>319.8727631082789</v>
       </c>
       <c r="Y4" t="n">
-        <v>657.6489837069648</v>
+        <v>319.8727631082789</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.004869410819</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1648.004869410819</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.739170804069</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E5" t="n">
-        <v>903.9509182058246</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>492.965013416217</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,22 +4562,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474941</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4753,22 +4753,22 @@
         <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450112</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>653.9590194638729</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>653.9590194638729</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W7" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
         <v>417.1246616985469</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3286.265709072931</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3286.265709072931</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3032.735232346768</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.672345003197</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2348.903689733083</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2348.903689733083</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.764357757271</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812244</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5018,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,19 +5060,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5300,28 +5300,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>229.7425191625314</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5735,7 +5735,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>94.56320294380271</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
         <v>407.9027098310023</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,25 +5990,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6303,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>810.0653816078141</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1440.495976479601</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1212.506425581584</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>991.7138464380538</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
         <v>2092.798483612593</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449245</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>229.7425191625314</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>229.7425191625314</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7425191625314</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192633</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7190,19 +7190,19 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273908</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206044</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926976</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803618</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979687</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
         <v>175.9033664000583</v>
@@ -7564,7 +7564,7 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2253.366709591041</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.291482935239</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508442</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.7017074173500077</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520185</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>92.12028678808286</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.31459260778999</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>226.8744163489437</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>86.99395161137545</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>25.74504007796077</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.89260457059967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.74112246243957</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>48.39475227997619</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="15">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055059</v>
@@ -26350,7 +26350,7 @@
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405253</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.7441040525</v>
-      </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186738</v>
@@ -26436,13 +26436,13 @@
         <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26451,7 +26451,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186729</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26525,43 +26525,43 @@
         <v>578458.9967056231</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.996705623</v>
+        <v>578458.9967056232</v>
       </c>
       <c r="E6" t="n">
-        <v>325427.5820323764</v>
+        <v>325392.8441069403</v>
       </c>
       <c r="F6" t="n">
-        <v>650840.0438397316</v>
+        <v>650805.3059142958</v>
       </c>
       <c r="G6" t="n">
-        <v>650840.0438397314</v>
+        <v>650805.3059142957</v>
       </c>
       <c r="H6" t="n">
-        <v>650840.0438397315</v>
+        <v>650805.3059142956</v>
       </c>
       <c r="I6" t="n">
-        <v>650840.0438397314</v>
+        <v>650805.3059142957</v>
       </c>
       <c r="J6" t="n">
-        <v>433308.8414424536</v>
+        <v>433274.1035170183</v>
       </c>
       <c r="K6" t="n">
-        <v>650840.0438397316</v>
+        <v>650805.3059142956</v>
       </c>
       <c r="L6" t="n">
-        <v>650840.0438397315</v>
+        <v>650805.3059142956</v>
       </c>
       <c r="M6" t="n">
-        <v>565785.0159042196</v>
+        <v>565750.2779787839</v>
       </c>
       <c r="N6" t="n">
-        <v>650840.0438397315</v>
+        <v>650805.305914296</v>
       </c>
       <c r="O6" t="n">
-        <v>650840.0438397314</v>
+        <v>650805.3059142955</v>
       </c>
       <c r="P6" t="n">
-        <v>650840.0438397315</v>
+        <v>650805.3059142957</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783848e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783848e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>205.3674867908985</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734507</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>74.42598799553404</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>18.09553611138131</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805529</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>30.3102874121862</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="U7" t="n">
-        <v>211.722157046286</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>222.9250743103427</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>70.24105037729802</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576736</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>124.2823321620152</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28807,10 +28807,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31619,7 +31619,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>161.7871425275306</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>100.2764607028594</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33023,13 +33023,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>300.5543663814922</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,10 +33041,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>658.2124561388958</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>318.3985571819317</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,22 +33731,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33758,7 +33758,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391492</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>223.6976288294628</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>23.94570355317166</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>23.94570355317166</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7540807028594299</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36671,13 +36671,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.999986601618</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,10 +36689,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>526.8707440555626</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>176.2645232599133</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558158</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>81.10138438501835</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
